--- a/trained_models_old_clean/MLP/har/results_table.xlsx
+++ b/trained_models_old_clean/MLP/har/results_table.xlsx
@@ -504,11 +504,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.2938866989914802, 'beta_2': 0.35355020606960597, 'epsilon': 0.003706063976268667, 'learning_rate': 'constant', 'momentum': 0.11686714853972713, 'nesterovs_momentum': False, 'solver': 'adam', 'validation_fraction': 0.2552645170920256}</t>
+          <t>{'beta_1': 0.43276066198961965, 'beta_2': 0.6568276111999178, 'epsilon': 0.7251677331318002, 'learning_rate': 'constant', 'momentum': 0.9830668688918388, 'nesterovs_momentum': True, 'solver': 'sgd', 'validation_fraction': 0.8534493333489572}</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.66610111978283</v>
+        <v>0.9538513742789277</v>
       </c>
     </row>
     <row r="3">
@@ -540,11 +540,11 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.02008743864130606, 'beta_2': 0.8281110891881457, 'epsilon': 0.0046907807163545185, 'learning_rate': 'invscaling', 'momentum': 0.5696184059233067, 'nesterovs_momentum': True, 'solver': 'adam', 'validation_fraction': 0.28847643704852866}</t>
+          <t>{'beta_1': 0.22409271194576452, 'beta_2': 0.09774664000954002, 'epsilon': 0.8613293259042616, 'learning_rate': 'constant', 'momentum': 0.3436055031480987, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.4113724140379379}</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.6121479470648117</v>
+        <v>0.5704105870376655</v>
       </c>
     </row>
     <row r="4">
@@ -576,11 +576,11 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.16388054667706958, 'beta_2': 0.46110686039660415, 'epsilon': 0.05164037856454271, 'learning_rate': 'adaptive', 'momentum': 0.05720755875071437, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.6741662803737272}</t>
+          <t>{'beta_1': 0.2938866989914802, 'beta_2': 0.35355020606960597, 'epsilon': 0.003706063976268667, 'learning_rate': 'constant', 'momentum': 0.11686714853972713, 'nesterovs_momentum': False, 'solver': 'adam', 'validation_fraction': 0.2552645170920256}</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.7848659653885307</v>
+        <v>0.9009161859518154</v>
       </c>
     </row>
     <row r="5">
@@ -612,11 +612,11 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.8486357637336316, 'beta_2': 0.5962052156871164, 'epsilon': 0.6748570656712874, 'learning_rate': 'adaptive', 'momentum': 0.8178071324672784, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9357703614435252}</t>
+          <t>{'beta_1': 0.2938866989914802, 'beta_2': 0.35355020606960597, 'epsilon': 0.003706063976268667, 'learning_rate': 'constant', 'momentum': 0.11686714853972713, 'nesterovs_momentum': False, 'solver': 'adam', 'validation_fraction': 0.2552645170920256}</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.1822192059721751</v>
+        <v>0.9368849677638276</v>
       </c>
     </row>
     <row r="6">
@@ -648,11 +648,11 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.15351287622984, 'beta_2': 0.44404922963498833, 'epsilon': 0.49460123084919705, 'learning_rate': 'constant', 'momentum': 0.581856616157203, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.5713805768779951}</t>
+          <t>{'beta_1': 0.2938866989914802, 'beta_2': 0.35355020606960597, 'epsilon': 0.003706063976268667, 'learning_rate': 'constant', 'momentum': 0.11686714853972713, 'nesterovs_momentum': False, 'solver': 'adam', 'validation_fraction': 0.2552645170920256}</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.9148286392941974</v>
+        <v>0.9019341703427214</v>
       </c>
     </row>
     <row r="7">
@@ -684,11 +684,11 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.02008743864130606, 'beta_2': 0.8281110891881457, 'epsilon': 0.0046907807163545185, 'learning_rate': 'invscaling', 'momentum': 0.5696184059233067, 'nesterovs_momentum': True, 'solver': 'adam', 'validation_fraction': 0.28847643704852866}</t>
+          <t>{'beta_1': 0.8486357637336316, 'beta_2': 0.5962052156871164, 'epsilon': 0.6748570656712874, 'learning_rate': 'adaptive', 'momentum': 0.8178071324672784, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9357703614435252}</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.9039701391245334</v>
+        <v>0.830335934848999</v>
       </c>
     </row>
     <row r="8">
@@ -720,11 +720,11 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.08498174250517425, 'beta_2': 0.2329405774274087, 'epsilon': 0.08129034701900123, 'learning_rate': 'adaptive', 'momentum': 0.3676261733862233, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.6780594102120125}</t>
+          <t>{'beta_1': 0.02008743864130606, 'beta_2': 0.8281110891881457, 'epsilon': 0.0046907807163545185, 'learning_rate': 'invscaling', 'momentum': 0.5696184059233067, 'nesterovs_momentum': True, 'solver': 'adam', 'validation_fraction': 0.28847643704852866}</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.1822192059721751</v>
+        <v>0.9168646080760094</v>
       </c>
     </row>
     <row r="9">
@@ -756,11 +756,11 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.432854773920062, 'beta_2': 0.7553505871711759, 'epsilon': 0.3957021771479389, 'learning_rate': 'adaptive', 'momentum': 0.5722519057908734, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.6800555694634123}</t>
+          <t>{'beta_1': 0.7421553937886406, 'beta_2': 0.1958047535264583, 'epsilon': 0.28604321732657556, 'learning_rate': 'invscaling', 'momentum': 0.045677082037155925, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.16897605441274532}</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.511706820495419</v>
+        <v>0.9236511706820495</v>
       </c>
     </row>
     <row r="10">
@@ -792,11 +792,11 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.4140244343165045, 'beta_2': 0.7904902706802612, 'epsilon': 0.720476914817972, 'learning_rate': 'constant', 'momentum': 0.6438640367225967, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.8115184706218832}</t>
+          <t>{'beta_1': 0.02008743864130606, 'beta_2': 0.8281110891881457, 'epsilon': 0.0046907807163545185, 'learning_rate': 'invscaling', 'momentum': 0.5696184059233067, 'nesterovs_momentum': True, 'solver': 'adam', 'validation_fraction': 0.28847643704852866}</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.1822192059721751</v>
+        <v>0.9348489989820156</v>
       </c>
     </row>
     <row r="11">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.8978622327790974</v>
+        <v>0.8686800135731252</v>
       </c>
     </row>
     <row r="12">
@@ -864,11 +864,11 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.02008743864130606, 'beta_2': 0.8281110891881457, 'epsilon': 0.0046907807163545185, 'learning_rate': 'invscaling', 'momentum': 0.5696184059233067, 'nesterovs_momentum': True, 'solver': 'adam', 'validation_fraction': 0.28847643704852866}</t>
+          <t>{'beta_1': 0.2938866989914802, 'beta_2': 0.35355020606960597, 'epsilon': 0.003706063976268667, 'learning_rate': 'constant', 'momentum': 0.11686714853972713, 'nesterovs_momentum': False, 'solver': 'adam', 'validation_fraction': 0.2552645170920256}</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.9300984051577876</v>
+        <v>0.7543264336613505</v>
       </c>
     </row>
     <row r="13">
@@ -900,11 +900,11 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.02008743864130606, 'beta_2': 0.8281110891881457, 'epsilon': 0.0046907807163545185, 'learning_rate': 'invscaling', 'momentum': 0.5696184059233067, 'nesterovs_momentum': True, 'solver': 'adam', 'validation_fraction': 0.28847643704852866}</t>
+          <t>{'beta_1': 0.43276066198961965, 'beta_2': 0.6568276111999178, 'epsilon': 0.7251677331318002, 'learning_rate': 'constant', 'momentum': 0.9830668688918388, 'nesterovs_momentum': True, 'solver': 'sgd', 'validation_fraction': 0.8534493333489572}</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.7838479809976246</v>
+        <v>0.8934509670851714</v>
       </c>
     </row>
     <row r="14">
@@ -936,11 +936,11 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.4563517633964015, 'beta_2': 0.6161257682830455, 'epsilon': 0.9016741474834287, 'learning_rate': 'adaptive', 'momentum': 0.9784153715112589, 'nesterovs_momentum': False, 'solver': 'sgd', 'validation_fraction': 0.31145009655296385}</t>
+          <t>{'beta_1': 0.7278291857906328, 'beta_2': 0.6546159760754452, 'epsilon': 0.008190941445487997, 'learning_rate': 'invscaling', 'momentum': 0.15214085470395233, 'nesterovs_momentum': True, 'solver': 'adam', 'validation_fraction': 0.2131564667521073}</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.8215134034611469</v>
+        <v>0.7899558873430608</v>
       </c>
     </row>
     <row r="15">
@@ -972,11 +972,11 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.8262029973985192, 'beta_2': 0.17031668652341375, 'epsilon': 0.7005474479755266, 'learning_rate': 'invscaling', 'momentum': 0.1979076029143242, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.05690645260383198}</t>
+          <t>{'beta_1': 0.43276066198961965, 'beta_2': 0.6568276111999178, 'epsilon': 0.7251677331318002, 'learning_rate': 'constant', 'momentum': 0.9830668688918388, 'nesterovs_momentum': True, 'solver': 'sgd', 'validation_fraction': 0.8534493333489572}</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.1822192059721751</v>
+        <v>0.9429928741092637</v>
       </c>
     </row>
     <row r="16">
@@ -1008,11 +1008,11 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.2013161956098951, 'beta_2': 0.5479705771835305, 'epsilon': 0.5191231866200975, 'learning_rate': 'adaptive', 'momentum': 0.0246199570564557, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.9944007896476794}</t>
+          <t>{'beta_1': 0.33989100308262865, 'beta_2': 0.2381323969631391, 'epsilon': 0.5098902102881291, 'learning_rate': 'invscaling', 'momentum': 0.2536073790650063, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9126706209463072}</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.7343060739735324</v>
+        <v>0.1822192059721751</v>
       </c>
     </row>
     <row r="17">
@@ -1044,11 +1044,11 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.02008743864130606, 'beta_2': 0.8281110891881457, 'epsilon': 0.0046907807163545185, 'learning_rate': 'invscaling', 'momentum': 0.5696184059233067, 'nesterovs_momentum': True, 'solver': 'adam', 'validation_fraction': 0.28847643704852866}</t>
+          <t>{'beta_1': 0.4025055362871611, 'beta_2': 0.5579645743348126, 'epsilon': 0.017023677329754915, 'learning_rate': 'invscaling', 'momentum': 0.500767659479403, 'nesterovs_momentum': True, 'solver': 'adam', 'validation_fraction': 0.4196691842641668}</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.4591109602986088</v>
+        <v>0.9039701391245334</v>
       </c>
     </row>
     <row r="18">
@@ -1080,11 +1080,11 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.31310710221217825, 'beta_2': 0.19065915415998982, 'epsilon': 0.9010217089966883, 'learning_rate': 'constant', 'momentum': 0.2711856325092864, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.19861675008444746}</t>
+          <t>{'beta_1': 0.02008743864130606, 'beta_2': 0.8281110891881457, 'epsilon': 0.0046907807163545185, 'learning_rate': 'invscaling', 'momentum': 0.5696184059233067, 'nesterovs_momentum': True, 'solver': 'adam', 'validation_fraction': 0.28847643704852866}</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.1822192059721751</v>
+        <v>0.6104513064133017</v>
       </c>
     </row>
     <row r="19">
@@ -1116,11 +1116,11 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.9756639553354612, 'beta_2': 0.7959082969442735, 'epsilon': 0.292883275730234, 'learning_rate': 'invscaling', 'momentum': 0.26420426422417276, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.4742667929910924}</t>
+          <t>{'beta_1': 0.43276066198961965, 'beta_2': 0.6568276111999178, 'epsilon': 0.7251677331318002, 'learning_rate': 'constant', 'momentum': 0.9830668688918388, 'nesterovs_momentum': True, 'solver': 'sgd', 'validation_fraction': 0.8534493333489572}</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.9453681710213777</v>
+        <v>0.9189005768578216</v>
       </c>
     </row>
     <row r="20">
@@ -1152,11 +1152,11 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.2938866989914802, 'beta_2': 0.35355020606960597, 'epsilon': 0.003706063976268667, 'learning_rate': 'constant', 'momentum': 0.11686714853972713, 'nesterovs_momentum': False, 'solver': 'adam', 'validation_fraction': 0.2552645170920256}</t>
+          <t>{'beta_1': 0.02008743864130606, 'beta_2': 0.8281110891881457, 'epsilon': 0.0046907807163545185, 'learning_rate': 'invscaling', 'momentum': 0.5696184059233067, 'nesterovs_momentum': True, 'solver': 'adam', 'validation_fraction': 0.28847643704852866}</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.9395995928062436</v>
+        <v>0.4940617577197149</v>
       </c>
     </row>
     <row r="21">
@@ -1190,11 +1190,11 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.8867323269570756, 'beta_2': 0.35414507380630195, 'epsilon': 0.8132998216596776, 'learning_rate': 'adaptive', 'momentum': 0.09067076824664133, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.3007589027504035}</t>
+          <t>{'beta_1': 0.9336258141554882, 'beta_2': 0.9206260002643532, 'epsilon': 0.007802405190337483, 'learning_rate': 'adaptive', 'momentum': 0.25663261663902925, 'nesterovs_momentum': True, 'solver': 'adam', 'validation_fraction': 0.31803028916055465}</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.4872751951136749</v>
+        <v>0.5388530709195792</v>
       </c>
     </row>
   </sheetData>
